--- a/data-jada/maker2020.xlsx
+++ b/data-jada/maker2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyahi\git\nlp4j-data\data-jada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B79B3-1796-420A-8E35-A88870503168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE51EE3-1A0D-4401-AC0D-1EB2408C190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1575" yWindow="3045" windowWidth="19320" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ダイハツ</t>
   </si>
@@ -81,49 +81,6 @@
   <si>
     <t>month</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>source</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202105.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202104.xls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202103.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202102.xls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202101.xls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202012.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202011.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202010.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202009.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202008.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202007.xls</t>
-  </si>
-  <si>
-    <t>http://www.jada.or.jp/contents/data/maker/excel/maker202006.xls</t>
   </si>
   <si>
     <t>合計</t>
@@ -504,13 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -557,13 +516,10 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -612,11 +568,8 @@
       <c r="P2">
         <v>221464</v>
       </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -665,11 +618,8 @@
       <c r="P3">
         <v>268302</v>
       </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -718,11 +668,8 @@
       <c r="P4">
         <v>374955</v>
       </c>
-      <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -771,11 +718,8 @@
       <c r="P5">
         <v>172138</v>
       </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -824,11 +768,8 @@
       <c r="P6">
         <v>147978</v>
       </c>
-      <c r="Q6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -877,11 +818,8 @@
       <c r="P7">
         <v>214857</v>
       </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -930,11 +868,8 @@
       <c r="P8">
         <v>239355</v>
       </c>
-      <c r="Q8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -983,11 +918,8 @@
       <c r="P9">
         <v>197832</v>
       </c>
-      <c r="Q9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -1036,11 +968,8 @@
       <c r="P10">
         <v>293520</v>
       </c>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1089,11 +1018,8 @@
       <c r="P11">
         <v>253304</v>
       </c>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -1142,11 +1068,8 @@
       <c r="P12">
         <v>253069</v>
       </c>
-      <c r="Q12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -1195,17 +1118,14 @@
       <c r="P13">
         <v>243753</v>
       </c>
-      <c r="Q13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
